--- a/Server/Teszt/MesterLista.xlsx
+++ b/Server/Teszt/MesterLista.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Megosztott mappa\Kutatók Éjszakája\Teszt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progik\3DPuzzleQuiz\Server\Teszt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1840,22 +1840,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24" style="10" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="24" style="10" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="3" customWidth="1"/>
-    <col min="10" max="16" width="8.7109375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="38.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="10" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
@@ -1892,19 +1892,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
@@ -1921,19 +1921,19 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>21</v>
@@ -1950,19 +1950,19 @@
         <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>29</v>
@@ -1979,19 +1979,19 @@
         <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>35</v>
@@ -2008,19 +2008,19 @@
         <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>41</v>
@@ -2037,19 +2037,19 @@
         <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>45</v>
@@ -2066,19 +2066,19 @@
         <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>53</v>
@@ -2095,19 +2095,19 @@
         <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>61</v>
@@ -2124,19 +2124,19 @@
         <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>65</v>
@@ -2153,19 +2153,19 @@
         <v>67</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>69</v>
@@ -2180,19 +2180,19 @@
         <v>70</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>72</v>
@@ -2209,19 +2209,19 @@
         <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>79</v>
@@ -2238,19 +2238,19 @@
         <v>81</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>86</v>
@@ -2267,19 +2267,19 @@
         <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>93</v>
@@ -2296,19 +2296,19 @@
         <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>97</v>
@@ -2325,19 +2325,19 @@
         <v>98</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>102</v>
@@ -2352,19 +2352,19 @@
         <v>103</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>104</v>
@@ -2379,19 +2379,19 @@
         <v>105</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>107</v>
@@ -2408,19 +2408,19 @@
         <v>109</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>110</v>
@@ -2437,19 +2437,19 @@
         <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>117</v>
@@ -2466,19 +2466,19 @@
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>125</v>
@@ -2495,19 +2495,19 @@
         <v>127</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>132</v>
@@ -2524,19 +2524,19 @@
         <v>134</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>136</v>
@@ -2551,19 +2551,19 @@
         <v>137</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>138</v>
@@ -2580,19 +2580,19 @@
         <v>139</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>141</v>
@@ -2609,19 +2609,19 @@
         <v>143</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>146</v>
@@ -2638,19 +2638,19 @@
         <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>150</v>
@@ -2665,19 +2665,19 @@
         <v>151</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>153</v>
@@ -2692,19 +2692,19 @@
         <v>154</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>157</v>
@@ -2721,19 +2721,19 @@
         <v>159</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>160</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>161</v>
@@ -2750,19 +2750,19 @@
         <v>162</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>164</v>
@@ -2779,19 +2779,19 @@
         <v>165</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>166</v>
@@ -2808,19 +2808,19 @@
         <v>168</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>171</v>
@@ -2837,19 +2837,19 @@
         <v>173</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>176</v>
@@ -2866,19 +2866,19 @@
         <v>178</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>184</v>
@@ -2895,19 +2895,19 @@
         <v>468</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>189</v>
@@ -2924,19 +2924,19 @@
         <v>190</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>192</v>
@@ -2953,19 +2953,19 @@
         <v>194</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>196</v>
@@ -2982,19 +2982,19 @@
         <v>198</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>201</v>
@@ -3011,19 +3011,19 @@
         <v>202</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>205</v>
@@ -3040,19 +3040,19 @@
         <v>207</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>208</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>209</v>
@@ -3069,19 +3069,19 @@
         <v>210</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>214</v>
@@ -3098,19 +3098,19 @@
         <v>216</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>221</v>
@@ -3127,19 +3127,19 @@
         <v>222</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>224</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>225</v>
@@ -3156,19 +3156,19 @@
         <v>227</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>228</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>229</v>
@@ -3185,19 +3185,19 @@
         <v>231</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>233</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>235</v>
@@ -3214,19 +3214,19 @@
         <v>237</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>241</v>
@@ -3243,19 +3243,19 @@
         <v>243</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>249</v>
@@ -3272,19 +3272,19 @@
         <v>250</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>252</v>
@@ -3301,19 +3301,19 @@
         <v>253</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>255</v>
@@ -3330,19 +3330,19 @@
         <v>256</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>257</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>258</v>
@@ -3359,19 +3359,19 @@
         <v>260</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>260</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>261</v>
@@ -3388,19 +3388,19 @@
         <v>263</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>266</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>268</v>
@@ -3417,19 +3417,19 @@
         <v>269</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>270</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>271</v>
@@ -3446,19 +3446,19 @@
         <v>273</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>274</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>275</v>
@@ -3475,19 +3475,19 @@
         <v>276</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>278</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>280</v>
@@ -3504,19 +3504,19 @@
         <v>281</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>284</v>
@@ -3533,19 +3533,19 @@
         <v>285</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>287</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>288</v>
@@ -3562,19 +3562,19 @@
         <v>289</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>290</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>291</v>
@@ -3591,19 +3591,19 @@
         <v>292</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>292</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>293</v>
@@ -3620,19 +3620,19 @@
         <v>294</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>295</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>296</v>
@@ -3649,19 +3649,19 @@
         <v>298</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>300</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>302</v>
@@ -3678,19 +3678,19 @@
         <v>303</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>306</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>309</v>
@@ -3707,19 +3707,19 @@
         <v>311</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>314</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>316</v>
@@ -3736,19 +3736,19 @@
         <v>317</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>319</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>320</v>
@@ -3765,19 +3765,19 @@
         <v>321</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>323</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>325</v>
@@ -3794,19 +3794,19 @@
         <v>326</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>327</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>328</v>
@@ -3823,19 +3823,19 @@
         <v>330</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>335</v>
@@ -3852,19 +3852,19 @@
         <v>336</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>336</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>337</v>
@@ -3881,19 +3881,19 @@
         <v>339</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>339</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>340</v>
@@ -3910,19 +3910,19 @@
         <v>342</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>342</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>346</v>
@@ -3939,19 +3939,19 @@
         <v>347</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>349</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>350</v>
@@ -3968,19 +3968,19 @@
         <v>352</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>357</v>
@@ -3997,19 +3997,19 @@
         <v>358</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>359</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>360</v>
@@ -4026,19 +4026,19 @@
         <v>361</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>362</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>363</v>
@@ -4055,19 +4055,19 @@
         <v>365</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>367</v>
@@ -4084,19 +4084,19 @@
         <v>369</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>371</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>372</v>
@@ -4113,19 +4113,19 @@
         <v>374</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>376</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>378</v>
@@ -4142,19 +4142,19 @@
         <v>380</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>381</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>382</v>
@@ -4171,19 +4171,19 @@
         <v>383</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>384</v>
       </c>
       <c r="E81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>385</v>
@@ -4200,19 +4200,19 @@
         <v>387</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>390</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>393</v>
@@ -4229,19 +4229,19 @@
         <v>395</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>396</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>397</v>
@@ -4258,19 +4258,19 @@
         <v>399</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>400</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>401</v>
@@ -4287,19 +4287,19 @@
         <v>403</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>406</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>407</v>
@@ -4316,19 +4316,19 @@
         <v>408</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>408</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>412</v>
@@ -4345,19 +4345,19 @@
         <v>413</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>414</v>
@@ -4372,19 +4372,19 @@
         <v>415</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>416</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>417</v>
@@ -4399,19 +4399,19 @@
         <v>418</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>418</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>419</v>
@@ -4428,19 +4428,19 @@
         <v>420</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>421</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>422</v>
@@ -4457,19 +4457,19 @@
         <v>424</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>425</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>426</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>428</v>
@@ -4486,19 +4486,19 @@
         <v>430</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>431</v>
       </c>
       <c r="E92" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>432</v>
@@ -4515,19 +4515,19 @@
         <v>433</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>435</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>436</v>
@@ -4544,19 +4544,19 @@
         <v>438</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>438</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>439</v>
@@ -4573,19 +4573,19 @@
         <v>440</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>441</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>442</v>
@@ -4602,19 +4602,19 @@
         <v>444</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>445</v>
       </c>
       <c r="E96" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>446</v>
@@ -4631,19 +4631,19 @@
         <v>447</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>448</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>449</v>
@@ -4660,19 +4660,19 @@
         <v>450</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>450</v>
       </c>
       <c r="E98" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>454</v>
@@ -4689,19 +4689,19 @@
         <v>455</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>457</v>
       </c>
       <c r="E99" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>459</v>
@@ -4718,19 +4718,19 @@
         <v>460</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>461</v>
       </c>
       <c r="E100" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>462</v>
@@ -4747,19 +4747,19 @@
         <v>464</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>466</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>467</v>
@@ -4777,6 +4777,6 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="2" orientation="portrait" horizontalDpi="4294967294"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="2" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Server/Teszt/MesterLista.xlsx
+++ b/Server/Teszt/MesterLista.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progik\3DPuzzleQuiz\Server\Teszt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Lista" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Lista!$1:$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Lista!$A:$I</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lista!$A:$I</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Lista!$1:$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,1430 +28,1426 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="471">
-  <si>
-    <t xml:space="preserve">Név</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Város</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angol Név</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angol Ország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angol Város</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doboz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szám</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A moszkvai Kreml Fala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oroszország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moszkva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Moscow Kremlin Wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moscow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Vérző Megváltó temploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szentpétervár</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Church of the Saviour on the Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Petersburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmed szultán kék mecsetje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Törökország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isztambul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sultan Ahmet Camii blue mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Istambul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akhmad Kadyrov mecset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grozníj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akhmad Kadyrov mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grozny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al-Masjid al-Haram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szaúd-Arábia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mekka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al-Masjid an-Nabawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna királynő bosszúja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyesült Királyság</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[elsüllyedt]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen Anne's Revenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[sank]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Az ég temploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kína</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temple of Heaven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beijing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank of China Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank of China tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Ben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boldog Vazul-székesegyház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Basil's cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolygó Hollandi szellemhajó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hollandia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flying Dutchman ghost ship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburgi kapu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Németország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandenburg gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooklyn-híd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooklyn bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States of America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckingham Palota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckingham Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burj Al Arab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egyesült Arab Emírségek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burj Kalifa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capitolium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrysler Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colosseum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olaszország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Róma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diadalív</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franciaország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Párizs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triumphal Arch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dohány utcai zsinagóga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magyarország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budapest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dohány Street Synagogue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eiffel Torony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eiffel tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empire State Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esmeralda 1855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esztergomi Bazilika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esztergom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esztergom Basilica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eyüp Sultan mecset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eyüp Sultan mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehér Ház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White house</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firenzei Dóm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firenze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cattedrale Santa Maria del Fiore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galata torony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galata tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groupama Aréna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groupama arena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hagia Sophia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Potter Roxfort Kastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alnwick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Potter Hogwarts castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hat hölgy kastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chenonceaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Château de Chenonceau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Himedzsi várkastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Himedzsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Himedji castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Himedji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hluboká kastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Csehország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hluboká nad Vltavou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hluboká castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMS Beagle hajó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMS Beagle ship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMS Victory 1765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hohenzollern kastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hohenzollern castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holland szélmalom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinderdijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch windmill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hősök tere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heroes' Square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaminarimon Kapu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokió</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaminarimon Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanadai Nemzeti TV-Torony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toronto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canadian National tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keleti Gyöngy torony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanghai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriental pearl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kínai Nagy Fal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great wall of China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kölni dóm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Köln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cologne cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cologne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kul Sharif mecset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kul Sharif mosque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kultúra és Tudomány Palotája</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengyelország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varsó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palace of culture and science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warsaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln emlékmű</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln memorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louvre Múzeum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louvre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mátyás-templom és Halászbástya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias church &amp; Fisherman's bastione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayflower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megváltó Krisztus szobra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazília</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rio de Janeiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christ redeemer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Megváltó Krisztus-székesegyház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cathedral of Christ the Saviour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mennyei béke kapuja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiananmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milánói Dóm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milánó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cathedral of Milan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi gőzhajó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Orleans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mississippi steamship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mustafa Kemal Atatürk mauzóleuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mausoleum Of Mustafa Kemal Atatürk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New York-i Szabadság szobor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statue of Liberty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notre-Dame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Országház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungarian parliament</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oszaka várkastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oszaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osaka castle Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peles kastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Románia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szinaja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peles castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petronas-ikertorony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malajzia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuala Lumpur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petronas twin-tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pisai ferde torony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaning tower of Pisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prágai csillagászati óra és a városháza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prága</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prague Astronomical Clock and Town Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prague</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Római csatahajó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roman warship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagrada Família</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spanyolország</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barcelona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sagrada Familia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Felipe 1690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Maria 1492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sky Tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Új-Zéland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auckland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sky tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New-Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzhou-i klasszikus kert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzhou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzhou classic garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney-i Operaház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausztrália</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney opera house</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Széchenyi Lánchíd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szechenyi Chain bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szent István-bazilika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Stephen's basilica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szent Izsák-székesegyház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Isaac's cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szent Jakab-katedrális</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago d. C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Jacob's cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szent Márk tér</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Mark square</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szent Pál-székesegyház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Paul cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szent Patrik-katedrális</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Patrick cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szent Péter-bazilika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vatikán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vatikán Város</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Peter's basilica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vatican</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vatican City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szent Vitus-székesegyház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Vitus cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szmolníj székesegyház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolny cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tadzs Mahal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taj Mahal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taipei 101 Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajvan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taipei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokiói torony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokyo tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokyo Skytree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower-híd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1642+1910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Törcsvári kastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Törcsvár</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bran castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tradicionális pekingi udvar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traditional Beijing garden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Újhattyúkő-kastély</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwangau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuschwanstein castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USS Constitution 1797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uszpenszkíj-székesegyház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uspenski cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vajdahunyad vára</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vajdahunyad castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varsói Királyi palota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Royal castle in Warsaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wat Phra Kaew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thaiföld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangkok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waweli Székesegyház</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krakkó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wawel cathedral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krakkow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westminsteri Apátság</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westminster Abbey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willis-torony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willis tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4025</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="471">
+  <si>
+    <t>Név</t>
+  </si>
+  <si>
+    <t>Ország</t>
+  </si>
+  <si>
+    <t>Város</t>
+  </si>
+  <si>
+    <t>Angol Név</t>
+  </si>
+  <si>
+    <t>Angol Ország</t>
+  </si>
+  <si>
+    <t>Angol Város</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Doboz</t>
+  </si>
+  <si>
+    <t>Szám</t>
+  </si>
+  <si>
+    <t>A moszkvai Kreml Fala</t>
+  </si>
+  <si>
+    <t>Oroszország</t>
+  </si>
+  <si>
+    <t>Moszkva</t>
+  </si>
+  <si>
+    <t>The Moscow Kremlin Wall</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>6381</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>A Vérző Megváltó temploma</t>
+  </si>
+  <si>
+    <t>Szentpétervár</t>
+  </si>
+  <si>
+    <t>The Church of the Saviour on the Blood</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>7805</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>Ahmed szultán kék mecsetje</t>
+  </si>
+  <si>
+    <t>Törökország</t>
+  </si>
+  <si>
+    <t>Isztambul</t>
+  </si>
+  <si>
+    <t>Sultan Ahmet Camii blue mosque</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Istambul</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>Akhmad Kadyrov mecset</t>
+  </si>
+  <si>
+    <t>Grozníj</t>
+  </si>
+  <si>
+    <t>Akhmad Kadyrov mosque</t>
+  </si>
+  <si>
+    <t>Grozny</t>
+  </si>
+  <si>
+    <t>3975</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>Al-Masjid al-Haram</t>
+  </si>
+  <si>
+    <t>Szaúd-Arábia</t>
+  </si>
+  <si>
+    <t>Mekka</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>3316</t>
+  </si>
+  <si>
+    <t>1928</t>
+  </si>
+  <si>
+    <t>Al-Masjid an-Nabawi</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>5588</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>Anna királynő bosszúja</t>
+  </si>
+  <si>
+    <t>Egyesült Királyság</t>
+  </si>
+  <si>
+    <t>[elsüllyedt]</t>
+  </si>
+  <si>
+    <t>Queen Anne's Revenge</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>[sank]</t>
+  </si>
+  <si>
+    <t>2676</t>
+  </si>
+  <si>
+    <t>1282</t>
+  </si>
+  <si>
+    <t>Az ég temploma</t>
+  </si>
+  <si>
+    <t>Kína</t>
+  </si>
+  <si>
+    <t>Peking</t>
+  </si>
+  <si>
+    <t>Temple of Heaven</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>6509</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>Bank of China Tower</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Bank of China tower</t>
+  </si>
+  <si>
+    <t>6036</t>
+  </si>
+  <si>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>Big Ben</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>9678</t>
+  </si>
+  <si>
+    <t>Boldog Vazul-székesegyház</t>
+  </si>
+  <si>
+    <t>Saint Basil's cathedral</t>
+  </si>
+  <si>
+    <t>2720</t>
+  </si>
+  <si>
+    <t>1671</t>
+  </si>
+  <si>
+    <t>Bolygó Hollandi szellemhajó</t>
+  </si>
+  <si>
+    <t>Hollandia</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Flying Dutchman ghost ship</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>5517</t>
+  </si>
+  <si>
+    <t>1472</t>
+  </si>
+  <si>
+    <t>Brandenburgi kapu</t>
+  </si>
+  <si>
+    <t>Németország</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Brandenburg gate</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>6118</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>Brooklyn-híd</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Brooklyn bridge</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>3095</t>
+  </si>
+  <si>
+    <t>1346</t>
+  </si>
+  <si>
+    <t>Buckingham Palota</t>
+  </si>
+  <si>
+    <t>Buckingham Palace</t>
+  </si>
+  <si>
+    <t>8032</t>
+  </si>
+  <si>
+    <t>Burj Al Arab</t>
+  </si>
+  <si>
+    <t>Egyesült Arab Emírségek</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>3735</t>
+  </si>
+  <si>
+    <t>Burj Kalifa</t>
+  </si>
+  <si>
+    <t>4355</t>
+  </si>
+  <si>
+    <t>Capitolium</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>9788</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>Chrysler Building</t>
+  </si>
+  <si>
+    <t>4342</t>
+  </si>
+  <si>
+    <t>1432</t>
+  </si>
+  <si>
+    <t>Colosseum</t>
+  </si>
+  <si>
+    <t>Olaszország</t>
+  </si>
+  <si>
+    <t>Róma</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>8052</t>
+  </si>
+  <si>
+    <t>1724</t>
+  </si>
+  <si>
+    <t>Diadalív</t>
+  </si>
+  <si>
+    <t>Franciaország</t>
+  </si>
+  <si>
+    <t>Párizs</t>
+  </si>
+  <si>
+    <t>Triumphal Arch</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>9118</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>Dohány utcai zsinagóga</t>
+  </si>
+  <si>
+    <t>Magyarország</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Dohány Street Synagogue</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>9851</t>
+  </si>
+  <si>
+    <t>1218</t>
+  </si>
+  <si>
+    <t>Eiffel Torony</t>
+  </si>
+  <si>
+    <t>Eiffel tower</t>
+  </si>
+  <si>
+    <t>4794</t>
+  </si>
+  <si>
+    <t>Empire State Building</t>
+  </si>
+  <si>
+    <t>9974</t>
+  </si>
+  <si>
+    <t>Esmeralda 1855</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>7582</t>
+  </si>
+  <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>Esztergomi Bazilika</t>
+  </si>
+  <si>
+    <t>Esztergom</t>
+  </si>
+  <si>
+    <t>Esztergom Basilica</t>
+  </si>
+  <si>
+    <t>6653</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>Eyüp Sultan mecset</t>
+  </si>
+  <si>
+    <t>Eyüp Sultan mosque</t>
+  </si>
+  <si>
+    <t>4837</t>
+  </si>
+  <si>
+    <t>Fehér Ház</t>
+  </si>
+  <si>
+    <t>White house</t>
+  </si>
+  <si>
+    <t>8465</t>
+  </si>
+  <si>
+    <t>Firenzei Dóm</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>Cattedrale Santa Maria del Fiore</t>
+  </si>
+  <si>
+    <t>7619</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>Galata torony</t>
+  </si>
+  <si>
+    <t>Galata tower</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>Groupama Aréna</t>
+  </si>
+  <si>
+    <t>Groupama arena</t>
+  </si>
+  <si>
+    <t>9461</t>
+  </si>
+  <si>
+    <t>Hagia Sophia</t>
+  </si>
+  <si>
+    <t>6192</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>Harry Potter Roxfort Kastély</t>
+  </si>
+  <si>
+    <t>Alnwick</t>
+  </si>
+  <si>
+    <t>Harry Potter Hogwarts castle</t>
+  </si>
+  <si>
+    <t>8550</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>Hat hölgy kastély</t>
+  </si>
+  <si>
+    <t>Chenonceaux</t>
+  </si>
+  <si>
+    <t>Château de Chenonceau</t>
+  </si>
+  <si>
+    <t>8422</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Himedzsi várkastély</t>
+  </si>
+  <si>
+    <t>Japán</t>
+  </si>
+  <si>
+    <t>Himedzsi</t>
+  </si>
+  <si>
+    <t>Himedji castle</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Himedji</t>
+  </si>
+  <si>
+    <t>5641</t>
+  </si>
+  <si>
+    <t>Hluboká kastély</t>
+  </si>
+  <si>
+    <t>Csehország</t>
+  </si>
+  <si>
+    <t>Hluboká nad Vltavou</t>
+  </si>
+  <si>
+    <t>Hluboká castle</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>4512</t>
+  </si>
+  <si>
+    <t>HMS Beagle hajó</t>
+  </si>
+  <si>
+    <t>HMS Beagle ship</t>
+  </si>
+  <si>
+    <t>8922</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>HMS Victory 1765</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>8447</t>
+  </si>
+  <si>
+    <t>1620</t>
+  </si>
+  <si>
+    <t>Hohenzollern kastély</t>
+  </si>
+  <si>
+    <t>Bisinden</t>
+  </si>
+  <si>
+    <t>Hohenzollern castle</t>
+  </si>
+  <si>
+    <t>6841</t>
+  </si>
+  <si>
+    <t>Holland szélmalom</t>
+  </si>
+  <si>
+    <t>Kinderdijk</t>
+  </si>
+  <si>
+    <t>Dutch windmill</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>1760</t>
+  </si>
+  <si>
+    <t>Hősök tere</t>
+  </si>
+  <si>
+    <t>Heroes' Square</t>
+  </si>
+  <si>
+    <t>9675</t>
+  </si>
+  <si>
+    <t>Kaminarimon Kapu</t>
+  </si>
+  <si>
+    <t>Tokió</t>
+  </si>
+  <si>
+    <t>Kaminarimon Gate</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>5131</t>
+  </si>
+  <si>
+    <t>1915</t>
+  </si>
+  <si>
+    <t>Kanadai Nemzeti TV-Torony</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Canadian National tower</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>Keleti Gyöngy torony</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Oriental pearl</t>
+  </si>
+  <si>
+    <t>4721</t>
+  </si>
+  <si>
+    <t>1768</t>
+  </si>
+  <si>
+    <t>Kínai Nagy Fal</t>
+  </si>
+  <si>
+    <t>Great wall of China</t>
+  </si>
+  <si>
+    <t>5210</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>Kölni dóm</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Cologne cathedral</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>3265</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>Kul Sharif mecset</t>
+  </si>
+  <si>
+    <t>Kazán</t>
+  </si>
+  <si>
+    <t>Kul Sharif mosque</t>
+  </si>
+  <si>
+    <t>Kazan</t>
+  </si>
+  <si>
+    <t>9010</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>Kultúra és Tudomány Palotája</t>
+  </si>
+  <si>
+    <t>Lengyelország</t>
+  </si>
+  <si>
+    <t>Varsó</t>
+  </si>
+  <si>
+    <t>Palace of culture and science</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>5466</t>
+  </si>
+  <si>
+    <t>Lincoln emlékmű</t>
+  </si>
+  <si>
+    <t>Lincoln memorial</t>
+  </si>
+  <si>
+    <t>6939</t>
+  </si>
+  <si>
+    <t>Louvre Múzeum</t>
+  </si>
+  <si>
+    <t>Louvre</t>
+  </si>
+  <si>
+    <t>9266</t>
+  </si>
+  <si>
+    <t>Mátyás-templom és Halászbástya</t>
+  </si>
+  <si>
+    <t>Matthias church &amp; Fisherman's bastione</t>
+  </si>
+  <si>
+    <t>8948</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>Mayflower</t>
+  </si>
+  <si>
+    <t>3278</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>Megváltó Krisztus szobra</t>
+  </si>
+  <si>
+    <t>Brazília</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Christ redeemer</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>4805</t>
+  </si>
+  <si>
+    <t>Megváltó Krisztus-székesegyház</t>
+  </si>
+  <si>
+    <t>Cathedral of Christ the Saviour</t>
+  </si>
+  <si>
+    <t>9218</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>Mennyei béke kapuja</t>
+  </si>
+  <si>
+    <t>Tiananmen</t>
+  </si>
+  <si>
+    <t>9483</t>
+  </si>
+  <si>
+    <t>Milánói Dóm</t>
+  </si>
+  <si>
+    <t>Milánó</t>
+  </si>
+  <si>
+    <t>Cathedral of Milan</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>8053</t>
+  </si>
+  <si>
+    <t>Mississippi gőzhajó</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Mississippi steamship</t>
+  </si>
+  <si>
+    <t>4954</t>
+  </si>
+  <si>
+    <t>Mustafa Kemal Atatürk mauzóleuma</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>Mausoleum Of Mustafa Kemal Atatürk</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>New York-i Szabadság szobor</t>
+  </si>
+  <si>
+    <t>Statue of Liberty</t>
+  </si>
+  <si>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>Notre-Dame</t>
+  </si>
+  <si>
+    <t>7310</t>
+  </si>
+  <si>
+    <t>Országház</t>
+  </si>
+  <si>
+    <t>Hungarian parliament</t>
+  </si>
+  <si>
+    <t>2615</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>Oszaka várkastély</t>
+  </si>
+  <si>
+    <t>Oszaka</t>
+  </si>
+  <si>
+    <t>Osaka castle Hall</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>2987</t>
+  </si>
+  <si>
+    <t>Peles kastély</t>
+  </si>
+  <si>
+    <t>Románia</t>
+  </si>
+  <si>
+    <t>Szinaja</t>
+  </si>
+  <si>
+    <t>Peles castle</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Sinaia</t>
+  </si>
+  <si>
+    <t>5408</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>Petronas-ikertorony</t>
+  </si>
+  <si>
+    <t>Malajzia</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Petronas twin-tower</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>7401</t>
+  </si>
+  <si>
+    <t>Pisai ferde torony</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Leaning tower of Pisa</t>
+  </si>
+  <si>
+    <t>2366</t>
+  </si>
+  <si>
+    <t>Prágai csillagászati óra és a városháza</t>
+  </si>
+  <si>
+    <t>Prága</t>
+  </si>
+  <si>
+    <t>Prague Astronomical Clock and Town Hall</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>4638</t>
+  </si>
+  <si>
+    <t>Római csatahajó</t>
+  </si>
+  <si>
+    <t>Roman warship</t>
+  </si>
+  <si>
+    <t>8790</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>Sagrada Família</t>
+  </si>
+  <si>
+    <t>Spanyolország</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Sagrada Familia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>9040</t>
+  </si>
+  <si>
+    <t>San Felipe 1690</t>
+  </si>
+  <si>
+    <t>8171</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>Santa Maria 1492</t>
+  </si>
+  <si>
+    <t>2154</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>Sky Tower</t>
+  </si>
+  <si>
+    <t>Új-Zéland</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Sky tower</t>
+  </si>
+  <si>
+    <t>New-Zealand</t>
+  </si>
+  <si>
+    <t>2762</t>
+  </si>
+  <si>
+    <t>Suzhou-i klasszikus kert</t>
+  </si>
+  <si>
+    <t>Suzhou</t>
+  </si>
+  <si>
+    <t>Suzhou classic garden</t>
+  </si>
+  <si>
+    <t>4367</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>Sydney-i Operaház</t>
+  </si>
+  <si>
+    <t>Ausztrália</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Sydney opera house</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>6522</t>
+  </si>
+  <si>
+    <t>Széchenyi Lánchíd</t>
+  </si>
+  <si>
+    <t>Szechenyi Chain bridge</t>
+  </si>
+  <si>
+    <t>5047</t>
+  </si>
+  <si>
+    <t>Szent István-bazilika</t>
+  </si>
+  <si>
+    <t>St. Stephen's basilica</t>
+  </si>
+  <si>
+    <t>6144</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>Szent Izsák-székesegyház</t>
+  </si>
+  <si>
+    <t>St. Isaac's cathedral</t>
+  </si>
+  <si>
+    <t>4485</t>
+  </si>
+  <si>
+    <t>1883</t>
+  </si>
+  <si>
+    <t>Szent Jakab-katedrális</t>
+  </si>
+  <si>
+    <t>Santiago d. C.</t>
+  </si>
+  <si>
+    <t>St. Jacob's cathedral</t>
+  </si>
+  <si>
+    <t>6795</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>Szent Márk tér</t>
+  </si>
+  <si>
+    <t>Velence</t>
+  </si>
+  <si>
+    <t>St. Mark square</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>3074</t>
+  </si>
+  <si>
+    <t>1668</t>
+  </si>
+  <si>
+    <t>Szent Pál-székesegyház</t>
+  </si>
+  <si>
+    <t>St. Paul cathedral</t>
+  </si>
+  <si>
+    <t>3489</t>
+  </si>
+  <si>
+    <t>Szent Patrik-katedrális</t>
+  </si>
+  <si>
+    <t>St. Patrick cathedral</t>
+  </si>
+  <si>
+    <t>2795</t>
+  </si>
+  <si>
+    <t>1583</t>
+  </si>
+  <si>
+    <t>Szent Péter-bazilika</t>
+  </si>
+  <si>
+    <t>Vatikán</t>
+  </si>
+  <si>
+    <t>Vatikán Város</t>
+  </si>
+  <si>
+    <t>St. Peter's basilica</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Vatican City</t>
+  </si>
+  <si>
+    <t>6644</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>Szent Vitus-székesegyház</t>
+  </si>
+  <si>
+    <t>St. Vitus cathedral</t>
+  </si>
+  <si>
+    <t>2194</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>Szmolníj székesegyház</t>
+  </si>
+  <si>
+    <t>Smolny cathedral</t>
+  </si>
+  <si>
+    <t>6558</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>Tadzs Mahal</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Taj Mahal</t>
+  </si>
+  <si>
+    <t>6316</t>
+  </si>
+  <si>
+    <t>Taipei 101 Building</t>
+  </si>
+  <si>
+    <t>Tajvan</t>
+  </si>
+  <si>
+    <t>Taipei</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>7148</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>8261</t>
+  </si>
+  <si>
+    <t>Tokiói torony</t>
+  </si>
+  <si>
+    <t>Tokyo tower</t>
+  </si>
+  <si>
+    <t>4982</t>
+  </si>
+  <si>
+    <t>Tokyo Skytree</t>
+  </si>
+  <si>
+    <t>4240</t>
+  </si>
+  <si>
+    <t>Tower-híd</t>
+  </si>
+  <si>
+    <t>Tower bridge</t>
+  </si>
+  <si>
+    <t>3609</t>
+  </si>
+  <si>
+    <t>Törcsvári kastély</t>
+  </si>
+  <si>
+    <t>Törcsvár</t>
+  </si>
+  <si>
+    <t>Bran castle</t>
+  </si>
+  <si>
+    <t>Bran</t>
+  </si>
+  <si>
+    <t>9658</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>Tradicionális pekingi udvar</t>
+  </si>
+  <si>
+    <t>Traditional Beijing garden</t>
+  </si>
+  <si>
+    <t>4677</t>
+  </si>
+  <si>
+    <t>Újhattyúkő-kastély</t>
+  </si>
+  <si>
+    <t>Schwangau</t>
+  </si>
+  <si>
+    <t>Neuschwanstein castle</t>
+  </si>
+  <si>
+    <t>4190</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>USS Constitution 1797</t>
+  </si>
+  <si>
+    <t>9213</t>
+  </si>
+  <si>
+    <t>Uszpenszkíj-székesegyház</t>
+  </si>
+  <si>
+    <t>Uspenski cathedral</t>
+  </si>
+  <si>
+    <t>6114</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>Vajdahunyad vára</t>
+  </si>
+  <si>
+    <t>Vajdahunyad castle</t>
+  </si>
+  <si>
+    <t>6389</t>
+  </si>
+  <si>
+    <t>Varsói Királyi palota</t>
+  </si>
+  <si>
+    <t>The Royal castle in Warsaw</t>
+  </si>
+  <si>
+    <t>5519</t>
+  </si>
+  <si>
+    <t>Wat Phra Kaew</t>
+  </si>
+  <si>
+    <t>Thaiföld</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>3423</t>
+  </si>
+  <si>
+    <t>Waweli Székesegyház</t>
+  </si>
+  <si>
+    <t>Krakkó</t>
+  </si>
+  <si>
+    <t>Wawel cathedral</t>
+  </si>
+  <si>
+    <t>Krakkow</t>
+  </si>
+  <si>
+    <t>3848</t>
+  </si>
+  <si>
+    <t>Westminsteri Apátság</t>
+  </si>
+  <si>
+    <t>Westminster Abbey</t>
+  </si>
+  <si>
+    <t>9596</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>Willis-torony</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Willis tower</t>
+  </si>
+  <si>
+    <t>4025</t>
+  </si>
+  <si>
+    <t>0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,22 +1456,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1485,8 +1470,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1501,132 +1493,83 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Corner" xfId="20"/>
-    <cellStyle name="Pivot Table Value" xfId="21"/>
-    <cellStyle name="Pivot Table Field" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
-    <cellStyle name="Pivot Table Title" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+  <cellStyles count="7">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Pivot Table Category" xfId="4"/>
+    <cellStyle name="Pivot Table Corner" xfId="1"/>
+    <cellStyle name="Pivot Table Field" xfId="3"/>
+    <cellStyle name="Pivot Table Result" xfId="6"/>
+    <cellStyle name="Pivot Table Title" xfId="5"/>
+    <cellStyle name="Pivot Table Value" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1638,6 +1581,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1696,51 +1640,63 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -1748,12 +1704,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -1782,7 +1738,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1803,7 +1759,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1854,7 +1810,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1872,40 +1828,40 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="11.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="4" width="8.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="18" style="4" width="8.72"/>
+    <col min="1" max="1" width="38.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" style="4"/>
+    <col min="18" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1959,11 +1915,11 @@
       <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1988,11 +1944,11 @@
       <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="8">
         <v>62</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -2017,11 +1973,11 @@
       <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -2046,11 +2002,11 @@
       <c r="H5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -2075,11 +2031,11 @@
       <c r="H6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>43</v>
       </c>
@@ -2104,11 +2060,11 @@
       <c r="H7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -2133,11 +2089,11 @@
       <c r="H8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="8">
         <v>61</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -2162,11 +2118,11 @@
       <c r="H9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="8">
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>63</v>
       </c>
@@ -2191,11 +2147,11 @@
       <c r="H10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>68</v>
       </c>
@@ -2217,12 +2173,14 @@
       <c r="G11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="n">
+      <c r="H11" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I11" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -2247,11 +2205,11 @@
       <c r="H12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -2276,11 +2234,11 @@
       <c r="H13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>82</v>
       </c>
@@ -2305,11 +2263,11 @@
       <c r="H14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>89</v>
       </c>
@@ -2334,11 +2292,11 @@
       <c r="H15" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>96</v>
       </c>
@@ -2363,11 +2321,11 @@
       <c r="H16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>99</v>
       </c>
@@ -2389,12 +2347,14 @@
       <c r="G17" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="n">
+      <c r="H17" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I17" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -2416,12 +2376,14 @@
       <c r="G18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="n">
+      <c r="H18" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I18" s="8">
         <v>37</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>106</v>
       </c>
@@ -2446,11 +2408,11 @@
       <c r="H19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>110</v>
       </c>
@@ -2475,11 +2437,11 @@
       <c r="H20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>113</v>
       </c>
@@ -2504,11 +2466,11 @@
       <c r="H21" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>120</v>
       </c>
@@ -2533,11 +2495,11 @@
       <c r="H22" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>128</v>
       </c>
@@ -2562,11 +2524,11 @@
       <c r="H23" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>135</v>
       </c>
@@ -2588,12 +2550,14 @@
       <c r="G24" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="n">
+      <c r="H24" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I24" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>138</v>
       </c>
@@ -2618,11 +2582,11 @@
       <c r="H25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>140</v>
       </c>
@@ -2647,11 +2611,11 @@
       <c r="H26" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>144</v>
       </c>
@@ -2676,11 +2640,11 @@
       <c r="H27" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>149</v>
       </c>
@@ -2702,12 +2666,14 @@
       <c r="G28" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="n">
+      <c r="H28" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I28" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>152</v>
       </c>
@@ -2729,12 +2695,14 @@
       <c r="G29" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="n">
+      <c r="H29" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I29" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>155</v>
       </c>
@@ -2759,11 +2727,11 @@
       <c r="H30" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>160</v>
       </c>
@@ -2788,11 +2756,11 @@
       <c r="H31" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>163</v>
       </c>
@@ -2817,11 +2785,11 @@
       <c r="H32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="8" t="n">
+      <c r="I32" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>166</v>
       </c>
@@ -2846,11 +2814,11 @@
       <c r="H33" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I33" s="8" t="n">
+      <c r="I33" s="8">
         <v>94</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>169</v>
       </c>
@@ -2875,11 +2843,11 @@
       <c r="H34" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>174</v>
       </c>
@@ -2904,11 +2872,11 @@
       <c r="H35" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="I35" s="9" t="n">
+      <c r="I35" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>179</v>
       </c>
@@ -2933,11 +2901,11 @@
       <c r="H36" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="9" t="n">
+      <c r="I36" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>186</v>
       </c>
@@ -2959,14 +2927,14 @@
       <c r="G37" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H37" s="8" t="n">
+      <c r="H37" s="8">
         <v>1481</v>
       </c>
-      <c r="I37" s="9" t="n">
+      <c r="I37" s="9">
         <v>85</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>192</v>
       </c>
@@ -2991,11 +2959,11 @@
       <c r="H38" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I38" s="9">
         <v>24</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>196</v>
       </c>
@@ -3020,11 +2988,11 @@
       <c r="H39" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="9" t="n">
+      <c r="I39" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>200</v>
       </c>
@@ -3049,11 +3017,11 @@
       <c r="H40" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="9" t="n">
+      <c r="I40" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>204</v>
       </c>
@@ -3078,11 +3046,11 @@
       <c r="H41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I41" s="9" t="n">
+      <c r="I41" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>209</v>
       </c>
@@ -3107,11 +3075,11 @@
       <c r="H42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I42" s="9" t="n">
+      <c r="I42" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>212</v>
       </c>
@@ -3136,11 +3104,11 @@
       <c r="H43" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="I43" s="9" t="n">
+      <c r="I43" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>218</v>
       </c>
@@ -3165,11 +3133,11 @@
       <c r="H44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="9" t="n">
+      <c r="I44" s="9">
         <v>76</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>224</v>
       </c>
@@ -3194,11 +3162,11 @@
       <c r="H45" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="I45" s="9" t="n">
+      <c r="I45" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>229</v>
       </c>
@@ -3223,11 +3191,11 @@
       <c r="H46" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="I46" s="9" t="n">
+      <c r="I46" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>233</v>
       </c>
@@ -3252,11 +3220,11 @@
       <c r="H47" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="I47" s="9" t="n">
+      <c r="I47" s="9">
         <v>91</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>239</v>
       </c>
@@ -3281,11 +3249,11 @@
       <c r="H48" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I48" s="9" t="n">
+      <c r="I48" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>245</v>
       </c>
@@ -3310,11 +3278,11 @@
       <c r="H49" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="9" t="n">
+      <c r="I49" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>252</v>
       </c>
@@ -3339,11 +3307,11 @@
       <c r="H50" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I50" s="9" t="n">
+      <c r="I50" s="9">
         <v>33</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>255</v>
       </c>
@@ -3368,11 +3336,11 @@
       <c r="H51" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="9" t="n">
+      <c r="I51" s="9">
         <v>93</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>258</v>
       </c>
@@ -3397,11 +3365,11 @@
       <c r="H52" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="I52" s="9" t="n">
+      <c r="I52" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>262</v>
       </c>
@@ -3426,11 +3394,11 @@
       <c r="H53" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="I53" s="9" t="n">
+      <c r="I53" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>265</v>
       </c>
@@ -3455,11 +3423,11 @@
       <c r="H54" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I54" s="9" t="n">
+      <c r="I54" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>271</v>
       </c>
@@ -3484,11 +3452,11 @@
       <c r="H55" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="I55" s="9" t="n">
+      <c r="I55" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>275</v>
       </c>
@@ -3513,11 +3481,11 @@
       <c r="H56" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I56" s="9" t="n">
+      <c r="I56" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>278</v>
       </c>
@@ -3542,11 +3510,11 @@
       <c r="H57" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I57" s="9" t="n">
+      <c r="I57" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>283</v>
       </c>
@@ -3571,11 +3539,11 @@
       <c r="H58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="9" t="n">
+      <c r="I58" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>287</v>
       </c>
@@ -3600,11 +3568,11 @@
       <c r="H59" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I59" s="9" t="n">
+      <c r="I59" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>291</v>
       </c>
@@ -3629,11 +3597,11 @@
       <c r="H60" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="I60" s="9" t="n">
+      <c r="I60" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>294</v>
       </c>
@@ -3658,11 +3626,11 @@
       <c r="H61" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I61" s="9" t="n">
+      <c r="I61" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>296</v>
       </c>
@@ -3687,11 +3655,11 @@
       <c r="H62" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="I62" s="9" t="n">
+      <c r="I62" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>300</v>
       </c>
@@ -3716,11 +3684,11 @@
       <c r="H63" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="I63" s="9" t="n">
+      <c r="I63" s="9">
         <v>89</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>305</v>
       </c>
@@ -3745,11 +3713,11 @@
       <c r="H64" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="I64" s="9" t="n">
+      <c r="I64" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>313</v>
       </c>
@@ -3774,11 +3742,11 @@
       <c r="H65" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I65" s="9" t="n">
+      <c r="I65" s="9">
         <v>84</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>319</v>
       </c>
@@ -3803,11 +3771,11 @@
       <c r="H66" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I66" s="9" t="n">
+      <c r="I66" s="9">
         <v>69</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>323</v>
       </c>
@@ -3832,11 +3800,11 @@
       <c r="H67" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="I67" s="9" t="n">
+      <c r="I67" s="9">
         <v>77</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>328</v>
       </c>
@@ -3861,11 +3829,11 @@
       <c r="H68" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="I68" s="9" t="n">
+      <c r="I68" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>332</v>
       </c>
@@ -3890,11 +3858,11 @@
       <c r="H69" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="9" t="n">
+      <c r="I69" s="9">
         <v>70</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>338</v>
       </c>
@@ -3919,11 +3887,11 @@
       <c r="H70" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="I70" s="9" t="n">
+      <c r="I70" s="9">
         <v>29</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>341</v>
       </c>
@@ -3948,11 +3916,11 @@
       <c r="H71" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="I71" s="9" t="n">
+      <c r="I71" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>344</v>
       </c>
@@ -3977,11 +3945,11 @@
       <c r="H72" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I72" s="9" t="n">
+      <c r="I72" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>350</v>
       </c>
@@ -4006,11 +3974,11 @@
       <c r="H73" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="I73" s="9" t="n">
+      <c r="I73" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>355</v>
       </c>
@@ -4035,11 +4003,11 @@
       <c r="H74" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I74" s="9" t="n">
+      <c r="I74" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>361</v>
       </c>
@@ -4064,11 +4032,11 @@
       <c r="H75" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I75" s="9" t="n">
+      <c r="I75" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>364</v>
       </c>
@@ -4093,11 +4061,11 @@
       <c r="H76" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="I76" s="9" t="n">
+      <c r="I76" s="9">
         <v>96</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>368</v>
       </c>
@@ -4122,11 +4090,11 @@
       <c r="H77" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="I77" s="9" t="n">
+      <c r="I77" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>372</v>
       </c>
@@ -4151,11 +4119,11 @@
       <c r="H78" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="I78" s="9" t="n">
+      <c r="I78" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>377</v>
       </c>
@@ -4180,11 +4148,11 @@
       <c r="H79" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="I79" s="9" t="n">
+      <c r="I79" s="9">
         <v>98</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>383</v>
       </c>
@@ -4209,11 +4177,11 @@
       <c r="H80" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="I80" s="9" t="n">
+      <c r="I80" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>386</v>
       </c>
@@ -4238,11 +4206,11 @@
       <c r="H81" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="I81" s="9" t="n">
+      <c r="I81" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>390</v>
       </c>
@@ -4267,11 +4235,11 @@
       <c r="H82" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="I82" s="9" t="n">
+      <c r="I82" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>398</v>
       </c>
@@ -4296,11 +4264,11 @@
       <c r="H83" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="I83" s="9" t="n">
+      <c r="I83" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>402</v>
       </c>
@@ -4325,11 +4293,11 @@
       <c r="H84" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="I84" s="9" t="n">
+      <c r="I84" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>406</v>
       </c>
@@ -4354,11 +4322,11 @@
       <c r="H85" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I85" s="9" t="n">
+      <c r="I85" s="9">
         <v>53</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>411</v>
       </c>
@@ -4383,11 +4351,11 @@
       <c r="H86" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I86" s="9" t="n">
+      <c r="I86" s="9">
         <v>95</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>416</v>
       </c>
@@ -4409,12 +4377,14 @@
       <c r="G87" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="9" t="n">
+      <c r="H87" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I87" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>418</v>
       </c>
@@ -4436,12 +4406,14 @@
       <c r="G88" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="9" t="n">
+      <c r="H88" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I88" s="9">
         <v>71</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>421</v>
       </c>
@@ -4466,11 +4438,11 @@
       <c r="H89" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I89" s="9" t="n">
+      <c r="I89" s="9">
         <v>92</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>423</v>
       </c>
@@ -4492,45 +4464,45 @@
       <c r="G90" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="8">
+        <v>1642</v>
+      </c>
+      <c r="I90" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="I90" s="9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>306</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>309</v>
       </c>
       <c r="F91" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="H91" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="I91" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="I91" s="9" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>56</v>
@@ -4539,7 +4511,7 @@
         <v>57</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>59</v>
@@ -4548,47 +4520,47 @@
         <v>60</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I92" s="9" t="n">
+      <c r="I92" s="9">
         <v>73</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G93" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="H93" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="I93" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="I93" s="9" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>90</v>
@@ -4597,7 +4569,7 @@
         <v>197</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>93</v>
@@ -4606,18 +4578,18 @@
         <v>197</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="I94" s="9" t="n">
+      <c r="I94" s="9">
         <v>47</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>10</v>
@@ -4626,7 +4598,7 @@
         <v>11</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>13</v>
@@ -4635,18 +4607,18 @@
         <v>14</v>
       </c>
       <c r="G95" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="I95" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="I95" s="9" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>129</v>
@@ -4655,7 +4627,7 @@
         <v>130</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>132</v>
@@ -4664,18 +4636,18 @@
         <v>130</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I96" s="9" t="n">
+      <c r="I96" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>246</v>
@@ -4684,7 +4656,7 @@
         <v>247</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>249</v>
@@ -4693,76 +4665,76 @@
         <v>250</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I97" s="9" t="n">
+      <c r="I97" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="D98" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>457</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I98" s="9" t="n">
+      <c r="I98" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>246</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>249</v>
       </c>
       <c r="F99" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>462</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I99" s="9" t="n">
+      <c r="I99" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>48</v>
@@ -4771,7 +4743,7 @@
         <v>69</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>51</v>
@@ -4780,56 +4752,51 @@
         <v>69</v>
       </c>
       <c r="G100" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="I100" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="I100" s="9" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="I101" s="9" t="n">
+      <c r="I101" s="9">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A:I"/>
+  <autoFilter ref="A1:I1048576"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.236111111111111" bottom="0.236111111111111" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="2" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.23611111111111099" bottom="0.23611111111111099" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" fitToHeight="2" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>